--- a/Historical Prices/Results/All.xlsx
+++ b/Historical Prices/Results/All.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kiera\OneDrive - University of Edinburgh\Every Day Files\Documents\Finance\Ivy Portfolio\Historical Prices\Results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uoe-my.sharepoint.com/personal/s1614973_ed_ac_uk/Documents/Every Day Files/Documents/Finance/Ivy Portfolio/Historical Prices/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="8_{342D5288-C983-4781-AFE5-901B5FF5FC7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D799077D-9882-47C9-86F4-5B6C275DEF94}"/>
+  <xr:revisionPtr revIDLastSave="83" documentId="8_{342D5288-C983-4781-AFE5-901B5FF5FC7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C65DE993-C754-458F-A4D1-A8CD6586D3D6}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{9730FFBD-C2B9-4AF0-B37B-8DD90657324D}"/>
+    <workbookView xWindow="3750" yWindow="3225" windowWidth="24810" windowHeight="12210" xr2:uid="{9730FFBD-C2B9-4AF0-B37B-8DD90657324D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -50,9 +50,6 @@
     <t>5 years</t>
   </si>
   <si>
-    <t>10 years</t>
-  </si>
-  <si>
     <t>Max</t>
   </si>
   <si>
@@ -75,6 +72,9 @@
   </si>
   <si>
     <t>Sharpe Ratio</t>
+  </si>
+  <si>
+    <t>Strategy</t>
   </si>
 </sst>
 </file>
@@ -439,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86D7CB86-4C05-4862-9E9A-966B33F3F593}">
-  <dimension ref="B2:I21"/>
+  <dimension ref="B2:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -451,19 +451,20 @@
     <col min="2" max="2" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C2" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="2"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
@@ -482,130 +483,116 @@
       <c r="H3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>0.95792517747181605</v>
+      </c>
+      <c r="D4">
+        <v>0.95702243216568506</v>
+      </c>
+      <c r="E4">
+        <v>0.97224273775498804</v>
+      </c>
+      <c r="F4">
+        <v>1.01899108099111</v>
+      </c>
+      <c r="G4">
+        <v>1.1311553228048199</v>
+      </c>
+      <c r="H4">
+        <v>1.09978967662433</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4">
-        <v>0.98878781605381305</v>
-      </c>
-      <c r="D4">
-        <v>0.99051978517760697</v>
-      </c>
-      <c r="E4">
-        <v>1.0472565428746701</v>
-      </c>
-      <c r="F4">
-        <v>1.0720326497405701</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1.20155181805244</v>
-      </c>
-      <c r="H4" s="1">
-        <v>1.5993462192619201</v>
-      </c>
-      <c r="I4">
-        <v>1.36354463085175</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2">
+        <v>0.95010100342253201</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.94658918722685703</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.97087720967065605</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1.00029481181855</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1.15831758061097</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1.1101296631705699</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="1">
-        <v>0.98947512934292403</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.99470837229144105</v>
-      </c>
-      <c r="E5">
-        <v>1.03414045203549</v>
-      </c>
-      <c r="F5">
-        <v>1.04047610075837</v>
-      </c>
-      <c r="G5">
-        <v>1.12517837128256</v>
-      </c>
-      <c r="H5">
-        <v>1.4874914870507401</v>
-      </c>
-      <c r="I5">
-        <v>1.29697397522582</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="1">
+        <v>1.03002257883327</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1.04595799913369</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1.0915135103794</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1.0793858004750601</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1.1906683239760301</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1.2607917106380699</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6">
-        <v>0.98170497872400397</v>
-      </c>
-      <c r="D6">
-        <v>0.97714145862638702</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1.07122609438505</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1.02572625470156</v>
-      </c>
-      <c r="G6">
-        <v>1.17706298068718</v>
-      </c>
-      <c r="H6">
-        <v>1.5213134940098501</v>
-      </c>
-      <c r="I6" s="1">
-        <v>1.47596059859073</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="C7">
-        <v>0.96293091659204699</v>
+        <v>0.99664133071274896</v>
       </c>
       <c r="D7">
-        <v>0.95942000893928503</v>
+        <v>0.99266246614863696</v>
       </c>
       <c r="E7">
-        <v>0.99381204882792895</v>
+        <v>1.0171392781419799</v>
       </c>
       <c r="F7">
-        <v>0.96887118762295799</v>
+        <v>0.99235245038979103</v>
       </c>
       <c r="G7">
-        <v>1.03163582915094</v>
+        <v>1.0179422080125</v>
       </c>
       <c r="H7">
-        <v>1.2517880904334</v>
-      </c>
-      <c r="I7">
-        <v>1.3717095310302501</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1.1209366692992699</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C9" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="2"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="C10" s="2" t="s">
         <v>0</v>
       </c>
@@ -624,127 +611,113 @@
       <c r="H10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I10" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>-0.13543932649363399</v>
+      </c>
+      <c r="D11">
+        <v>-0.13543932649363399</v>
+      </c>
+      <c r="E11">
+        <v>-0.13543932649363399</v>
+      </c>
+      <c r="F11">
+        <v>-0.13543932649363399</v>
+      </c>
+      <c r="G11">
+        <v>-0.13543932649363399</v>
+      </c>
+      <c r="H11">
+        <v>-0.162899009403082</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C11">
-        <v>-5.8231882338149299E-2</v>
-      </c>
-      <c r="D11">
-        <v>-6.8235993016262E-2</v>
-      </c>
-      <c r="E11">
-        <v>-6.8235993016262E-2</v>
-      </c>
-      <c r="F11">
-        <v>-9.2281536557338104E-2</v>
-      </c>
-      <c r="G11">
-        <v>-0.13334085512595201</v>
-      </c>
-      <c r="H11">
-        <v>-0.13334085512595201</v>
-      </c>
-      <c r="I11">
-        <v>-0.37363317223510401</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="2">
+        <v>-0.143336290770984</v>
+      </c>
+      <c r="D12" s="2">
+        <v>-0.143336290770984</v>
+      </c>
+      <c r="E12" s="2">
+        <v>-0.143336290770984</v>
+      </c>
+      <c r="F12" s="2">
+        <v>-0.143336290770984</v>
+      </c>
+      <c r="G12" s="2">
+        <v>-0.143336290770984</v>
+      </c>
+      <c r="H12" s="2">
+        <v>-0.1609552174501</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="1">
-        <v>-4.0729169815969399E-2</v>
-      </c>
-      <c r="D12" s="1">
-        <v>-5.0264209730724603E-2</v>
-      </c>
-      <c r="E12" s="1">
-        <v>-5.0264209730724603E-2</v>
-      </c>
-      <c r="F12">
-        <v>-8.6346295001188594E-2</v>
-      </c>
-      <c r="G12">
-        <v>-0.14735524866685601</v>
-      </c>
-      <c r="H12">
-        <v>-0.14735524866685601</v>
-      </c>
-      <c r="I12">
-        <v>-0.36618092051158202</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="1">
+        <v>-2.2650893499059899E-2</v>
+      </c>
+      <c r="D13" s="1">
+        <v>-2.2650893499059899E-2</v>
+      </c>
+      <c r="E13" s="1">
+        <v>-2.2650893499059899E-2</v>
+      </c>
+      <c r="F13" s="1">
+        <v>-5.1383387232482897E-2</v>
+      </c>
+      <c r="G13" s="1">
+        <v>-7.0334110143218095E-2</v>
+      </c>
+      <c r="H13">
+        <v>-0.107367211482866</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C13">
-        <v>-5.2007254529448703E-2</v>
-      </c>
-      <c r="D13">
-        <v>-6.65221301950083E-2</v>
-      </c>
-      <c r="E13">
-        <v>-6.65221301950083E-2</v>
-      </c>
-      <c r="F13">
-        <v>-7.6972660415146998E-2</v>
-      </c>
-      <c r="G13" s="1">
-        <v>-7.6972660415146998E-2</v>
-      </c>
-      <c r="H13" s="1">
-        <v>-9.7000061912963106E-2</v>
-      </c>
-      <c r="I13">
-        <v>-0.17129403021217601</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
+      <c r="C14">
+        <v>-6.0950071256683398E-2</v>
+      </c>
+      <c r="D14">
+        <v>-6.0950071256683398E-2</v>
+      </c>
+      <c r="E14">
+        <v>-6.0950071256683398E-2</v>
+      </c>
+      <c r="F14">
+        <v>-7.1385027589325897E-2</v>
+      </c>
+      <c r="G14">
+        <v>-9.7458873254150494E-2</v>
+      </c>
+      <c r="H14" s="1">
+        <v>-9.7458873254150494E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C16" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="C14">
-        <v>-4.6052684865229197E-2</v>
-      </c>
-      <c r="D14">
-        <v>-6.0129949292757598E-2</v>
-      </c>
-      <c r="E14">
-        <v>-6.0129949292757598E-2</v>
-      </c>
-      <c r="F14" s="1">
-        <v>-6.4218917685401694E-2</v>
-      </c>
-      <c r="G14">
-        <v>-0.10308645294671499</v>
-      </c>
-      <c r="H14">
-        <v>-0.10308645294671499</v>
-      </c>
-      <c r="I14" s="1">
-        <v>-0.1034400446121</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C16" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="2"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="C17" s="2" t="s">
         <v>0</v>
       </c>
@@ -763,119 +736,104 @@
       <c r="H17" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I17" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18">
+        <v>29.538832377281299</v>
+      </c>
+      <c r="D18">
+        <v>39.8534011373821</v>
+      </c>
+      <c r="E18">
+        <v>48.371615670318</v>
+      </c>
+      <c r="F18">
+        <v>40.488461753347302</v>
+      </c>
+      <c r="G18">
+        <v>14.6627164477185</v>
+      </c>
+      <c r="H18">
+        <v>11.5913974225725</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C18">
-        <v>69.195931545124694</v>
-      </c>
-      <c r="D18">
-        <v>84.763902724654599</v>
-      </c>
-      <c r="E18">
-        <v>36.4041141143556</v>
-      </c>
-      <c r="F18">
-        <v>26.1295617605556</v>
-      </c>
-      <c r="G18">
-        <v>12.0322615552108</v>
-      </c>
-      <c r="H18">
-        <v>7.5106203500011404</v>
-      </c>
-      <c r="I18">
-        <v>6.0700602326224402</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
+      <c r="C19" s="2">
+        <v>27.7469357794084</v>
+      </c>
+      <c r="D19" s="2">
+        <v>37.816339920435702</v>
+      </c>
+      <c r="E19" s="2">
+        <v>43.384132315573702</v>
+      </c>
+      <c r="F19" s="2">
+        <v>43.889743174417198</v>
+      </c>
+      <c r="G19" s="2">
+        <v>13.064563003740201</v>
+      </c>
+      <c r="H19" s="2">
+        <v>10.3911863260501</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C19">
-        <v>85.292738464464406</v>
-      </c>
-      <c r="D19" s="1">
-        <v>102.193683353241</v>
-      </c>
-      <c r="E19">
-        <v>47.959238774170402</v>
-      </c>
-      <c r="F19">
-        <v>36.620819494874901</v>
-      </c>
-      <c r="G19">
-        <v>14.8777038795132</v>
-      </c>
-      <c r="H19">
-        <v>9.5333994719353097</v>
-      </c>
-      <c r="I19">
-        <v>6.9606899062032097</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="1">
+        <v>112.460977387916</v>
+      </c>
+      <c r="D20" s="1">
+        <v>103.564197976302</v>
+      </c>
+      <c r="E20">
+        <v>40.3239690632604</v>
+      </c>
+      <c r="F20">
+        <v>34.943001527767997</v>
+      </c>
+      <c r="G20">
+        <v>18.599861777664799</v>
+      </c>
+      <c r="H20">
+        <v>11.9331783197236</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C20">
-        <v>78.043718326225203</v>
-      </c>
-      <c r="D20">
-        <v>88.409401940626793</v>
-      </c>
-      <c r="E20">
-        <v>28.6380203696183</v>
-      </c>
-      <c r="F20">
-        <v>36.5288941237418</v>
-      </c>
-      <c r="G20">
-        <v>18.439266971783599</v>
-      </c>
-      <c r="H20">
-        <v>8.0586915569011595</v>
-      </c>
-      <c r="I20">
-        <v>6.3767328707854398</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="1">
-        <v>99.579632078291496</v>
+      <c r="C21">
+        <v>82.972375850638002</v>
       </c>
       <c r="D21">
-        <v>94.821205272078799</v>
+        <v>100.01105907394999</v>
       </c>
       <c r="E21" s="1">
-        <v>55.471089418734898</v>
+        <v>61.723184431828997</v>
       </c>
       <c r="F21" s="1">
-        <v>65.420209919171199</v>
+        <v>68.523493792609599</v>
       </c>
       <c r="G21" s="1">
-        <v>21.401883197389701</v>
+        <v>30.270125292803701</v>
       </c>
       <c r="H21" s="1">
-        <v>12.069903089630801</v>
-      </c>
-      <c r="I21" s="1">
-        <v>8.44873139270039</v>
+        <v>17.209883035324999</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="C16:I16"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C16:H16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Historical Prices/Results/All.xlsx
+++ b/Historical Prices/Results/All.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uoe-my.sharepoint.com/personal/s1614973_ed_ac_uk/Documents/Every Day Files/Documents/Finance/Ivy Portfolio/Historical Prices/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="83" documentId="8_{342D5288-C983-4781-AFE5-901B5FF5FC7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C65DE993-C754-458F-A4D1-A8CD6586D3D6}"/>
+  <xr:revisionPtr revIDLastSave="120" documentId="8_{342D5288-C983-4781-AFE5-901B5FF5FC7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{ED1C65E0-C867-4B29-9B70-23F4445BC791}"/>
   <bookViews>
-    <workbookView xWindow="3750" yWindow="3225" windowWidth="24810" windowHeight="12210" xr2:uid="{9730FFBD-C2B9-4AF0-B37B-8DD90657324D}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="11385" xr2:uid="{9730FFBD-C2B9-4AF0-B37B-8DD90657324D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -442,7 +442,7 @@
   <dimension ref="B2:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -489,45 +489,45 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>0.95792517747181605</v>
+        <v>0.84335067321643598</v>
       </c>
       <c r="D4">
-        <v>0.95702243216568506</v>
+        <v>0.84980045237667001</v>
       </c>
       <c r="E4">
-        <v>0.97224273775498804</v>
+        <v>0.91171724573929303</v>
       </c>
       <c r="F4">
-        <v>1.01899108099111</v>
+        <v>0.976518446912928</v>
       </c>
       <c r="G4">
-        <v>1.1311553228048199</v>
-      </c>
-      <c r="H4">
-        <v>1.09978967662433</v>
+        <v>1.17664954394468</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1.45177242003471</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="2">
-        <v>0.95010100342253201</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0.94658918722685703</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0.97087720967065605</v>
-      </c>
-      <c r="F5" s="2">
-        <v>1.00029481181855</v>
-      </c>
-      <c r="G5" s="2">
-        <v>1.15831758061097</v>
-      </c>
-      <c r="H5" s="2">
-        <v>1.1101296631705699</v>
+      <c r="C5">
+        <v>0.85683642830900197</v>
+      </c>
+      <c r="D5">
+        <v>0.85955726106838504</v>
+      </c>
+      <c r="E5">
+        <v>0.94670237632769805</v>
+      </c>
+      <c r="F5">
+        <v>0.98232303679625399</v>
+      </c>
+      <c r="G5">
+        <v>1.21860810241466</v>
+      </c>
+      <c r="H5">
+        <v>1.4162692798921701</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
@@ -535,22 +535,22 @@
         <v>10</v>
       </c>
       <c r="C6" s="1">
-        <v>1.03002257883327</v>
+        <v>0.97350004069950802</v>
       </c>
       <c r="D6" s="1">
-        <v>1.04595799913369</v>
+        <v>0.97304046870694005</v>
       </c>
       <c r="E6" s="1">
-        <v>1.0915135103794</v>
+        <v>1.05636511637126</v>
       </c>
       <c r="F6" s="1">
-        <v>1.0793858004750601</v>
+        <v>1.0308154658144599</v>
       </c>
       <c r="G6" s="1">
-        <v>1.1906683239760301</v>
-      </c>
-      <c r="H6" s="1">
-        <v>1.2607917106380699</v>
+        <v>1.2913066924783301</v>
+      </c>
+      <c r="H6">
+        <v>1.3717603449553599</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
@@ -558,22 +558,22 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <v>0.99664133071274896</v>
+        <v>0.93967633869435396</v>
       </c>
       <c r="D7">
-        <v>0.99266246614863696</v>
+        <v>0.94166542429502698</v>
       </c>
       <c r="E7">
-        <v>1.0171392781419799</v>
+        <v>1.03738950876447</v>
       </c>
       <c r="F7">
-        <v>0.99235245038979103</v>
+        <v>1.0097627396870199</v>
       </c>
       <c r="G7">
-        <v>1.0179422080125</v>
+        <v>1.1341968158523601</v>
       </c>
       <c r="H7">
-        <v>1.1209366692992699</v>
+        <v>1.28341416821636</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
@@ -617,45 +617,45 @@
         <v>8</v>
       </c>
       <c r="C11">
-        <v>-0.13543932649363399</v>
+        <v>-0.25271178828636498</v>
       </c>
       <c r="D11">
-        <v>-0.13543932649363399</v>
+        <v>-0.25271178828636498</v>
       </c>
       <c r="E11">
-        <v>-0.13543932649363399</v>
+        <v>-0.25271178828636498</v>
       </c>
       <c r="F11">
-        <v>-0.13543932649363399</v>
+        <v>-0.25271178828636498</v>
       </c>
       <c r="G11">
-        <v>-0.13543932649363399</v>
+        <v>-0.25271178828636498</v>
       </c>
       <c r="H11">
-        <v>-0.162899009403082</v>
+        <v>-0.25271178828636498</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="2">
-        <v>-0.143336290770984</v>
-      </c>
-      <c r="D12" s="2">
-        <v>-0.143336290770984</v>
-      </c>
-      <c r="E12" s="2">
-        <v>-0.143336290770984</v>
-      </c>
-      <c r="F12" s="2">
-        <v>-0.143336290770984</v>
-      </c>
-      <c r="G12" s="2">
-        <v>-0.143336290770984</v>
-      </c>
-      <c r="H12" s="2">
-        <v>-0.1609552174501</v>
+      <c r="C12">
+        <v>-0.237763605414826</v>
+      </c>
+      <c r="D12">
+        <v>-0.237763605414826</v>
+      </c>
+      <c r="E12">
+        <v>-0.237763605414826</v>
+      </c>
+      <c r="F12">
+        <v>-0.237763605414826</v>
+      </c>
+      <c r="G12">
+        <v>-0.237763605414826</v>
+      </c>
+      <c r="H12">
+        <v>-0.237763605414826</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
@@ -663,22 +663,22 @@
         <v>10</v>
       </c>
       <c r="C13" s="1">
-        <v>-2.2650893499059899E-2</v>
+        <v>-5.6664818092968902E-2</v>
       </c>
       <c r="D13" s="1">
-        <v>-2.2650893499059899E-2</v>
+        <v>-6.6867472204538494E-2</v>
       </c>
       <c r="E13" s="1">
-        <v>-2.2650893499059899E-2</v>
+        <v>-8.3905675960594006E-2</v>
       </c>
       <c r="F13" s="1">
-        <v>-5.1383387232482897E-2</v>
-      </c>
-      <c r="G13" s="1">
-        <v>-7.0334110143218095E-2</v>
+        <v>-0.11790304738742099</v>
+      </c>
+      <c r="G13">
+        <v>-0.16947038886165999</v>
       </c>
       <c r="H13">
-        <v>-0.107367211482866</v>
+        <v>-0.178515893009879</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
@@ -686,22 +686,22 @@
         <v>11</v>
       </c>
       <c r="C14">
-        <v>-6.0950071256683398E-2</v>
+        <v>-0.130069619225816</v>
       </c>
       <c r="D14">
-        <v>-6.0950071256683398E-2</v>
+        <v>-0.130069619225816</v>
       </c>
       <c r="E14">
-        <v>-6.0950071256683398E-2</v>
+        <v>-0.130069619225816</v>
       </c>
       <c r="F14">
-        <v>-7.1385027589325897E-2</v>
-      </c>
-      <c r="G14">
-        <v>-9.7458873254150494E-2</v>
+        <v>-0.130069619225816</v>
+      </c>
+      <c r="G14" s="1">
+        <v>-0.130069619225816</v>
       </c>
       <c r="H14" s="1">
-        <v>-9.7458873254150494E-2</v>
+        <v>-0.130069619225816</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
@@ -742,45 +742,45 @@
         <v>8</v>
       </c>
       <c r="C18">
-        <v>29.538832377281299</v>
+        <v>11.921238236941299</v>
       </c>
       <c r="D18">
-        <v>39.8534011373821</v>
+        <v>16.6077525969114</v>
       </c>
       <c r="E18">
-        <v>48.371615670318</v>
+        <v>20.3441463236041</v>
       </c>
       <c r="F18">
-        <v>40.488461753347302</v>
+        <v>16.032261181819699</v>
       </c>
       <c r="G18">
-        <v>14.6627164477185</v>
+        <v>8.1821266594511801</v>
       </c>
       <c r="H18">
-        <v>11.5913974225725</v>
+        <v>5.2219852984867101</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="2">
-        <v>27.7469357794084</v>
-      </c>
-      <c r="D19" s="2">
-        <v>37.816339920435702</v>
-      </c>
-      <c r="E19" s="2">
-        <v>43.384132315573702</v>
-      </c>
-      <c r="F19" s="2">
-        <v>43.889743174417198</v>
-      </c>
-      <c r="G19" s="2">
-        <v>13.064563003740201</v>
-      </c>
-      <c r="H19" s="2">
-        <v>10.3911863260501</v>
+      <c r="C19">
+        <v>13.1506717109534</v>
+      </c>
+      <c r="D19">
+        <v>18.365624638617799</v>
+      </c>
+      <c r="E19">
+        <v>18.763202027122201</v>
+      </c>
+      <c r="F19">
+        <v>14.912112055510599</v>
+      </c>
+      <c r="G19">
+        <v>7.8089479036607701</v>
+      </c>
+      <c r="H19">
+        <v>5.5275625977001104</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
@@ -788,22 +788,22 @@
         <v>10</v>
       </c>
       <c r="C20" s="1">
-        <v>112.460977387916</v>
+        <v>66.184006361043203</v>
       </c>
       <c r="D20" s="1">
-        <v>103.564197976302</v>
-      </c>
-      <c r="E20">
-        <v>40.3239690632604</v>
+        <v>75.480591191673099</v>
+      </c>
+      <c r="E20" s="1">
+        <v>31.010784506711399</v>
       </c>
       <c r="F20">
-        <v>34.943001527767997</v>
+        <v>18.5267874334459</v>
       </c>
       <c r="G20">
-        <v>18.599861777664799</v>
+        <v>9.9169785230666996</v>
       </c>
       <c r="H20">
-        <v>11.9331783197236</v>
+        <v>5.9524321087724203</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
@@ -811,22 +811,22 @@
         <v>11</v>
       </c>
       <c r="C21">
-        <v>82.972375850638002</v>
+        <v>27.550206521137302</v>
       </c>
       <c r="D21">
-        <v>100.01105907394999</v>
-      </c>
-      <c r="E21" s="1">
-        <v>61.723184431828997</v>
+        <v>36.596582940099701</v>
+      </c>
+      <c r="E21">
+        <v>23.236473033335098</v>
       </c>
       <c r="F21" s="1">
-        <v>68.523493792609599</v>
+        <v>23.643242745932501</v>
       </c>
       <c r="G21" s="1">
-        <v>30.270125292803701</v>
+        <v>12.7592417972034</v>
       </c>
       <c r="H21" s="1">
-        <v>17.209883035324999</v>
+        <v>8.2757207956190193</v>
       </c>
     </row>
   </sheetData>

--- a/Historical Prices/Results/All.xlsx
+++ b/Historical Prices/Results/All.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uoe-my.sharepoint.com/personal/s1614973_ed_ac_uk/Documents/Every Day Files/Documents/Finance/Ivy Portfolio/Historical Prices/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="120" documentId="8_{342D5288-C983-4781-AFE5-901B5FF5FC7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{ED1C65E0-C867-4B29-9B70-23F4445BC791}"/>
+  <xr:revisionPtr revIDLastSave="155" documentId="8_{342D5288-C983-4781-AFE5-901B5FF5FC7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A4DA63F4-0FFE-4F8E-8CC2-7366E046E436}"/>
   <bookViews>
     <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="11385" xr2:uid="{9730FFBD-C2B9-4AF0-B37B-8DD90657324D}"/>
   </bookViews>
@@ -442,7 +442,7 @@
   <dimension ref="B2:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -489,22 +489,22 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>0.84335067321643598</v>
+        <v>0.83810981027487397</v>
       </c>
       <c r="D4">
-        <v>0.84980045237667001</v>
+        <v>0.84502819368090598</v>
       </c>
       <c r="E4">
-        <v>0.91171724573929303</v>
+        <v>0.90925664139523099</v>
       </c>
       <c r="F4">
-        <v>0.976518446912928</v>
+        <v>0.97259780002336405</v>
       </c>
       <c r="G4">
-        <v>1.17664954394468</v>
-      </c>
-      <c r="H4" s="1">
-        <v>1.45177242003471</v>
+        <v>1.1807117147805</v>
+      </c>
+      <c r="H4">
+        <v>1.4851402425376501</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -521,13 +521,13 @@
         <v>0.94670237632769805</v>
       </c>
       <c r="F5">
-        <v>0.98232303679625399</v>
+        <v>0.98232303679625299</v>
       </c>
       <c r="G5">
         <v>1.21860810241466</v>
       </c>
       <c r="H5">
-        <v>1.4162692798921701</v>
+        <v>1.45956731063969</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
@@ -549,8 +549,8 @@
       <c r="G6" s="1">
         <v>1.2913066924783301</v>
       </c>
-      <c r="H6">
-        <v>1.3717603449553599</v>
+      <c r="H6" s="1">
+        <v>1.6413053895759999</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
@@ -567,13 +567,13 @@
         <v>1.03738950876447</v>
       </c>
       <c r="F7">
-        <v>1.0097627396870199</v>
+        <v>1.0097627396870299</v>
       </c>
       <c r="G7">
         <v>1.1341968158523601</v>
       </c>
       <c r="H7">
-        <v>1.28341416821636</v>
+        <v>1.37289396087158</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
@@ -617,22 +617,22 @@
         <v>8</v>
       </c>
       <c r="C11">
-        <v>-0.25271178828636498</v>
+        <v>-0.25750575545606702</v>
       </c>
       <c r="D11">
-        <v>-0.25271178828636498</v>
+        <v>-0.25750575545606702</v>
       </c>
       <c r="E11">
-        <v>-0.25271178828636498</v>
+        <v>-0.25750575545606702</v>
       </c>
       <c r="F11">
-        <v>-0.25271178828636498</v>
+        <v>-0.25750575545606702</v>
       </c>
       <c r="G11">
-        <v>-0.25271178828636498</v>
+        <v>-0.25750575545606702</v>
       </c>
       <c r="H11">
-        <v>-0.25271178828636498</v>
+        <v>-0.25750575545606702</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
@@ -663,22 +663,22 @@
         <v>10</v>
       </c>
       <c r="C13" s="1">
-        <v>-5.6664818092968902E-2</v>
+        <v>-5.6664818092968597E-2</v>
       </c>
       <c r="D13" s="1">
-        <v>-6.6867472204538494E-2</v>
+        <v>-6.6867472204538606E-2</v>
       </c>
       <c r="E13" s="1">
-        <v>-8.3905675960594006E-2</v>
+        <v>-8.3905675960593895E-2</v>
       </c>
       <c r="F13" s="1">
-        <v>-0.11790304738742099</v>
+        <v>-0.11790304738742</v>
       </c>
       <c r="G13">
-        <v>-0.16947038886165999</v>
+        <v>-0.16947038886165799</v>
       </c>
       <c r="H13">
-        <v>-0.178515893009879</v>
+        <v>-0.16947038886165799</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
@@ -742,22 +742,22 @@
         <v>8</v>
       </c>
       <c r="C18">
-        <v>11.921238236941299</v>
+        <v>11.593784730166499</v>
       </c>
       <c r="D18">
-        <v>16.6077525969114</v>
+        <v>16.160156639056499</v>
       </c>
       <c r="E18">
-        <v>20.3441463236041</v>
+        <v>19.678905739952299</v>
       </c>
       <c r="F18">
-        <v>16.032261181819699</v>
+        <v>15.6170046920787</v>
       </c>
       <c r="G18">
-        <v>8.1821266594511801</v>
+        <v>7.9625313937175104</v>
       </c>
       <c r="H18">
-        <v>5.2219852984867101</v>
+        <v>5.51203251413878</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
@@ -774,13 +774,13 @@
         <v>18.763202027122201</v>
       </c>
       <c r="F19">
-        <v>14.912112055510599</v>
+        <v>14.912112055510701</v>
       </c>
       <c r="G19">
         <v>7.8089479036607701</v>
       </c>
       <c r="H19">
-        <v>5.5275625977001104</v>
+        <v>5.7903069057172898</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
@@ -788,22 +788,22 @@
         <v>10</v>
       </c>
       <c r="C20" s="1">
-        <v>66.184006361043203</v>
+        <v>66.184006361043302</v>
       </c>
       <c r="D20" s="1">
-        <v>75.480591191673099</v>
+        <v>75.4805911916729</v>
       </c>
       <c r="E20" s="1">
-        <v>31.010784506711399</v>
-      </c>
-      <c r="F20">
-        <v>18.5267874334459</v>
+        <v>31.010784506711602</v>
+      </c>
+      <c r="F20" s="2">
+        <v>18.526787433446</v>
       </c>
       <c r="G20">
-        <v>9.9169785230666996</v>
+        <v>9.9169785230665806</v>
       </c>
       <c r="H20">
-        <v>5.9524321087724203</v>
+        <v>6.1661769099967598</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
@@ -814,19 +814,19 @@
         <v>27.550206521137302</v>
       </c>
       <c r="D21">
-        <v>36.596582940099701</v>
+        <v>36.596582940099601</v>
       </c>
       <c r="E21">
-        <v>23.236473033335098</v>
+        <v>23.236473033334899</v>
       </c>
       <c r="F21" s="1">
-        <v>23.643242745932501</v>
+        <v>23.643242745932302</v>
       </c>
       <c r="G21" s="1">
         <v>12.7592417972034</v>
       </c>
       <c r="H21" s="1">
-        <v>8.2757207956190193</v>
+        <v>8.6241970819911504</v>
       </c>
     </row>
   </sheetData>
